--- a/0.사업예산관리/예산신청/계좌별거래내역조회 210222.xlsx
+++ b/0.사업예산관리/예산신청/계좌별거래내역조회 210222.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="228">
   <si>
     <t>거래일시</t>
   </si>
@@ -1445,7 +1445,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>사대보험(고용,산재 250원 감면 (이유??))</t>
+    <t>사대보험(고용,산재 250원 감면)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>국유재산사용료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>배상훈</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1509,7 +1517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1610,13 +1618,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFE5E5E5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1686,29 +1703,59 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1990,20 +2037,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="30" customWidth="1"/>
-    <col min="3" max="4" width="8.375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="30" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="30" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="30" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="16.125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="23" customWidth="1"/>
+    <col min="3" max="4" width="8.375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2033,362 +2082,346 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>124800</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1234489</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>214</v>
-      </c>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <v>500000</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="40">
+        <f>F3+C2-D2</f>
+        <v>260879</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>646520</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1359289</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>225</v>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33">
+        <v>473610</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="35">
+        <f>F4+C3-D3</f>
+        <v>760879</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>70230</v>
+        <v>124800</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4">
-        <v>2005809</v>
+        <v>1234489</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="27"/>
+      <c r="H4" s="5" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>169850</v>
+        <v>646520</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4">
-        <v>2076039</v>
+        <v>1359289</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="27"/>
+      <c r="H5" s="26" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>549660</v>
+        <v>70230</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4">
-        <v>2245889</v>
+        <v>2005809</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4">
-        <v>1354400</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>169850</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4">
-        <v>2795549</v>
+        <v>2076039</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>215</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <v>110000</v>
+        <v>549660</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4">
-        <v>1441149</v>
+        <v>2245889</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>216</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="15">
-        <v>100000</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1551149</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="17"/>
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1354400</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2795549</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4">
-        <v>227360</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F10" s="4">
-        <v>1451149</v>
+        <v>1441149</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>220</v>
+        <v>29</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4">
-        <v>243540</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1223789</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>222</v>
-      </c>
+      <c r="A11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="15">
+        <v>100000</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1551149</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="4">
-        <v>100000</v>
+        <v>227360</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F12" s="4">
-        <v>980249</v>
+        <v>1451149</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>216</v>
+      <c r="H12" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="4">
-        <v>200750</v>
+        <v>243540</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F13" s="4">
-        <v>880249</v>
+        <v>1223789</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="D14" s="4">
-        <v>2265640</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F14" s="4">
-        <v>679499</v>
+        <v>980249</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="25" t="s">
-        <v>217</v>
+      <c r="H14" s="10" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="4">
-        <v>2265640</v>
+        <v>200750</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F15" s="4">
-        <v>2945139</v>
+        <v>880249</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="5" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>44</v>
@@ -2397,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>1999250</v>
+        <v>2265640</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="4">
         <v>679499</v>
@@ -2408,33 +2441,33 @@
       <c r="G16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="25" t="s">
-        <v>218</v>
+      <c r="H16" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="4">
-        <v>1999250</v>
+        <v>2265640</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F17" s="4">
-        <v>2678749</v>
+        <v>2945139</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="27"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -2447,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="4">
-        <v>2249460</v>
+        <v>1999250</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="4">
         <v>679499</v>
@@ -2458,8 +2491,8 @@
       <c r="G18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="27" t="s">
-        <v>219</v>
+      <c r="H18" s="29" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2470,16 +2503,16 @@
         <v>34</v>
       </c>
       <c r="C19" s="4">
-        <v>2249460</v>
+        <v>1999250</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="4">
-        <v>2928959</v>
+        <v>2678749</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>36</v>
@@ -2488,19 +2521,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4">
-        <v>169800</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
+        <v>2249460</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F20" s="4">
         <v>679499</v>
@@ -2508,85 +2541,85 @@
       <c r="G20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>177</v>
+      <c r="H20" s="27" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="4">
-        <v>205000</v>
+        <v>2249460</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F21" s="4">
-        <v>509699</v>
+        <v>2928959</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>178</v>
-      </c>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>169800</v>
       </c>
       <c r="D22" s="4">
-        <v>645000</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F22" s="4">
-        <v>304699</v>
+        <v>679499</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="29" t="s">
-        <v>179</v>
+      <c r="H22" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="4">
-        <v>645000</v>
+        <v>205000</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F23" s="4">
-        <v>949699</v>
+        <v>509699</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="29"/>
+      <c r="H23" s="9" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -2599,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="4">
-        <v>705000</v>
+        <v>645000</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="4">
         <v>304699</v>
@@ -2610,7 +2643,7 @@
       <c r="G24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="30" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2622,401 +2655,399 @@
         <v>34</v>
       </c>
       <c r="C25" s="4">
-        <v>705000</v>
+        <v>645000</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="4">
-        <v>1009699</v>
+        <v>949699</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="29"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
       </c>
       <c r="D26" s="4">
-        <v>205000</v>
+        <v>705000</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F26" s="4">
         <v>304699</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>178</v>
+        <v>36</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4">
+        <v>705000</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1009699</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="30"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>169800</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>205000</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="4">
-        <v>509699</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="F28" s="4">
+        <v>304699</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H28" s="9" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="20">
-        <v>500000</v>
-      </c>
-      <c r="D28" s="20">
-        <v>0</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="20">
-        <v>679499</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C29" s="4">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4">
-        <v>0</v>
+        <v>169800</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F29" s="4">
-        <v>179499</v>
+        <v>509699</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>180</v>
+        <v>10</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4">
-        <v>481818</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="4">
-        <v>79499</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>181</v>
-      </c>
+      <c r="A30" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="20">
+        <v>500000</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="20">
+        <v>679499</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="4">
+        <v>100000</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="4">
+        <v>179499</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
         <v>481818</v>
       </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="F31" s="4">
-        <v>561317</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" s="26"/>
-    </row>
-    <row r="32" spans="1:8" ht="24">
-      <c r="A32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2514000</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="F32" s="4">
         <v>79499</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>182</v>
+        <v>36</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>481818</v>
       </c>
       <c r="D33" s="4">
-        <v>48182</v>
+        <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F33" s="4">
-        <v>2593499</v>
+        <v>561317</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="1:8" ht="24">
       <c r="A34" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C34" s="4">
-        <v>2285455</v>
+        <v>0</v>
       </c>
       <c r="D34" s="4">
-        <v>0</v>
+        <v>2514000</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F34" s="4">
-        <v>2641681</v>
+        <v>79499</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
       </c>
       <c r="D35" s="4">
-        <v>36820</v>
+        <v>48182</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F35" s="4">
-        <v>356226</v>
+        <v>2593499</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="28" t="s">
-        <v>185</v>
+      <c r="H35" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>2285455</v>
       </c>
       <c r="D36" s="4">
-        <v>86560</v>
+        <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F36" s="4">
-        <v>393046</v>
+        <v>2641681</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="27"/>
+        <v>36</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
       </c>
       <c r="D37" s="4">
-        <v>646520</v>
+        <v>36820</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F37" s="4">
-        <v>479606</v>
+        <v>356226</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="27"/>
+      <c r="H37" s="26" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
       </c>
       <c r="D38" s="4">
-        <v>345100</v>
+        <v>86560</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F38" s="4">
-        <v>1126126</v>
+        <v>393046</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="26"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C39" s="4">
-        <v>223680</v>
+        <v>0</v>
       </c>
       <c r="D39" s="4">
-        <v>0</v>
+        <v>646520</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F39" s="4">
-        <v>1471226</v>
+        <v>479606</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>186</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C40" s="4">
-        <v>197490</v>
+        <v>0</v>
       </c>
       <c r="D40" s="4">
-        <v>0</v>
+        <v>345100</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F40" s="4">
-        <v>1247546</v>
+        <v>1126126</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>187</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H40" s="28"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -3026,77 +3057,79 @@
         <v>34</v>
       </c>
       <c r="C41" s="4">
-        <v>112180</v>
+        <v>223680</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F41" s="4">
-        <v>1050056</v>
+        <v>1471226</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>197490</v>
       </c>
       <c r="D42" s="4">
-        <v>1987060</v>
+        <v>0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F42" s="4">
-        <v>937876</v>
+        <v>1247546</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H42" s="25" t="s">
-        <v>189</v>
+      <c r="H42" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C43" s="4">
-        <v>1987060</v>
+        <v>112180</v>
       </c>
       <c r="D43" s="4">
         <v>0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" s="4">
-        <v>2924936</v>
+        <v>1050056</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="26"/>
+      <c r="H43" s="5" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>44</v>
@@ -3105,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="D44" s="4">
-        <v>2269320</v>
+        <v>1987060</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" s="4">
         <v>937876</v>
@@ -3116,33 +3149,33 @@
       <c r="G44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="25" t="s">
-        <v>190</v>
+      <c r="H44" s="29" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="4">
-        <v>2269320</v>
+        <v>1987060</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" s="4">
-        <v>3207196</v>
+        <v>2924936</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H45" s="26"/>
+      <c r="H45" s="28"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
@@ -3155,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="4">
-        <v>2002510</v>
+        <v>2269320</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F46" s="4">
         <v>937876</v>
@@ -3166,8 +3199,8 @@
       <c r="G46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H46" s="25" t="s">
-        <v>191</v>
+      <c r="H46" s="29" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3178,127 +3211,127 @@
         <v>34</v>
       </c>
       <c r="C47" s="4">
+        <v>2269320</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="4">
+        <v>3207196</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="28"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
         <v>2002510</v>
       </c>
-      <c r="D47" s="4">
-        <v>0</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="4">
-        <v>2940386</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H47" s="26"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="15">
-        <v>500000</v>
-      </c>
-      <c r="D48" s="15">
-        <v>0</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F48" s="15">
+      <c r="F48" s="4">
         <v>937876</v>
       </c>
-      <c r="G48" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>192</v>
+      <c r="G48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C49" s="4">
-        <v>0</v>
+        <v>2002510</v>
       </c>
       <c r="D49" s="4">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F49" s="4">
-        <v>437876</v>
+        <v>2940386</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>180</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H49" s="28"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4">
-        <v>2727273</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="4">
-        <v>547876</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>193</v>
+      <c r="A50" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="15">
+        <v>500000</v>
+      </c>
+      <c r="D50" s="15">
+        <v>0</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="15">
+        <v>937876</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C51" s="4">
-        <v>2727273</v>
+        <v>0</v>
       </c>
       <c r="D51" s="4">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="F51" s="4">
-        <v>3275149</v>
+        <v>437876</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="26"/>
+        <v>29</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>44</v>
@@ -3307,10 +3340,10 @@
         <v>0</v>
       </c>
       <c r="D52" s="4">
-        <v>3000000</v>
+        <v>2727273</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F52" s="4">
         <v>547876</v>
@@ -3318,135 +3351,135 @@
       <c r="G52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H52" s="25" t="s">
+      <c r="H52" s="29" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C53" s="4">
+        <v>2727273</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3275149</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="28"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
         <v>3000000</v>
       </c>
-      <c r="D53" s="4">
-        <v>0</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="4">
-        <v>3547876</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H53" s="26"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="20">
-        <v>500000</v>
-      </c>
-      <c r="D54" s="20">
-        <v>0</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" s="20">
+      <c r="F54" s="4">
         <v>547876</v>
       </c>
-      <c r="G54" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" s="21"/>
+      <c r="G54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C55" s="4">
-        <v>183</v>
+        <v>3000000</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F55" s="4">
-        <v>47876</v>
+        <v>3547876</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="H55" s="28"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="4">
-        <v>0</v>
-      </c>
-      <c r="D56" s="4">
-        <v>51950</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56" s="4">
-        <v>47693</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>194</v>
-      </c>
+      <c r="A56" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="20">
+        <v>500000</v>
+      </c>
+      <c r="D56" s="20">
+        <v>0</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="20">
+        <v>547876</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="21"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="C57" s="4">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="D57" s="4">
-        <v>422160</v>
+        <v>0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F57" s="4">
-        <v>99643</v>
+        <v>47876</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H57" s="27"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>15</v>
@@ -3455,98 +3488,96 @@
         <v>0</v>
       </c>
       <c r="D58" s="4">
-        <v>121990</v>
+        <v>51950</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F58" s="4">
-        <v>521803</v>
+        <v>47693</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="27"/>
+      <c r="H58" s="26" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C59" s="4">
         <v>0</v>
       </c>
       <c r="D59" s="4">
-        <v>345100</v>
+        <v>422160</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F59" s="4">
-        <v>643793</v>
+        <v>99643</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H59" s="26"/>
+      <c r="H59" s="27"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="C60" s="4">
         <v>0</v>
       </c>
       <c r="D60" s="4">
-        <v>4040</v>
+        <v>121990</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F60" s="4">
-        <v>988893</v>
+        <v>521803</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="5" t="s">
-        <v>195</v>
-      </c>
+      <c r="H60" s="27"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
       </c>
       <c r="D61" s="4">
-        <v>40420</v>
+        <v>345100</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F61" s="4">
-        <v>992933</v>
+        <v>643793</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="5" t="s">
-        <v>196</v>
-      </c>
+      <c r="H61" s="28"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>109</v>
@@ -3555,24 +3586,24 @@
         <v>0</v>
       </c>
       <c r="D62" s="4">
-        <v>780</v>
+        <v>4040</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>110</v>
       </c>
       <c r="F62" s="4">
-        <v>1033353</v>
+        <v>988893</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>109</v>
@@ -3581,86 +3612,88 @@
         <v>0</v>
       </c>
       <c r="D63" s="4">
-        <v>7850</v>
+        <v>40420</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>112</v>
       </c>
       <c r="F63" s="4">
-        <v>1034133</v>
+        <v>992933</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C64" s="4">
         <v>0</v>
       </c>
       <c r="D64" s="4">
-        <v>1987190</v>
+        <v>780</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F64" s="4">
-        <v>1041983</v>
+        <v>1033353</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>191</v>
+        <v>10</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="C65" s="4">
-        <v>1987190</v>
+        <v>0</v>
       </c>
       <c r="D65" s="4">
-        <v>0</v>
+        <v>7850</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F65" s="4">
-        <v>3029173</v>
+        <v>1034133</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C66" s="4">
-        <v>212810</v>
+        <v>0</v>
       </c>
       <c r="D66" s="4">
-        <v>0</v>
+        <v>1987190</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F66" s="4">
         <v>1041983</v>
@@ -3668,237 +3701,237 @@
       <c r="G66" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H66" s="5" t="s">
-        <v>187</v>
+      <c r="H66" s="29" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C67" s="4">
-        <v>223680</v>
+        <v>1987190</v>
       </c>
       <c r="D67" s="4">
         <v>0</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F67" s="4">
-        <v>829173</v>
+        <v>3029173</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H67" s="5" t="s">
-        <v>186</v>
-      </c>
+      <c r="H67" s="28"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C68" s="4">
-        <v>0</v>
+        <v>212810</v>
       </c>
       <c r="D68" s="4">
-        <v>2269320</v>
+        <v>0</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F68" s="4">
-        <v>605493</v>
+        <v>1041983</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H68" s="28" t="s">
-        <v>199</v>
+      <c r="H68" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C69" s="4">
-        <v>2269320</v>
+        <v>223680</v>
       </c>
       <c r="D69" s="4">
         <v>0</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F69" s="4">
-        <v>2874813</v>
+        <v>829173</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H69" s="26"/>
+      <c r="H69" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C70" s="4">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="D70" s="4">
-        <v>0</v>
+        <v>2269320</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F70" s="4">
         <v>605493</v>
       </c>
-      <c r="G70" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>200</v>
+      <c r="G70" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" s="26" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="15">
-        <v>0</v>
-      </c>
-      <c r="D71" s="15">
-        <v>500000</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F71" s="15">
-        <v>105493</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="17" t="s">
-        <v>201</v>
-      </c>
+      <c r="A71" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="4">
+        <v>2269320</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2874813</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" s="28"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="C72" s="4">
-        <v>269504</v>
+        <v>500000</v>
       </c>
       <c r="D72" s="4">
         <v>0</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="F72" s="4">
         <v>605493</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="15">
+        <v>0</v>
+      </c>
+      <c r="D73" s="15">
+        <v>500000</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="15">
+        <v>105493</v>
+      </c>
+      <c r="G73" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C73" s="4">
-        <v>0</v>
-      </c>
-      <c r="D73" s="4">
-        <v>690311</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F73" s="4">
-        <v>335989</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" s="5"/>
+      <c r="H73" s="17" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C74" s="4">
-        <v>0</v>
+        <v>269504</v>
       </c>
       <c r="D74" s="4">
-        <v>1976580</v>
+        <v>0</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="F74" s="4">
-        <v>1026300</v>
+        <v>605493</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H74" s="28" t="s">
-        <v>203</v>
+        <v>10</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="C75" s="4">
-        <v>1976580</v>
+        <v>0</v>
       </c>
       <c r="D75" s="4">
-        <v>0</v>
+        <v>690311</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F75" s="4">
-        <v>3002880</v>
+        <v>335989</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H75" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="H75" s="5"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
@@ -3911,10 +3944,10 @@
         <v>0</v>
       </c>
       <c r="D76" s="4">
-        <v>2269320</v>
+        <v>1976580</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F76" s="4">
         <v>1026300</v>
@@ -3922,8 +3955,8 @@
       <c r="G76" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H76" s="28" t="s">
-        <v>204</v>
+      <c r="H76" s="26" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3934,21 +3967,21 @@
         <v>34</v>
       </c>
       <c r="C77" s="4">
-        <v>2269320</v>
+        <v>1976580</v>
       </c>
       <c r="D77" s="4">
         <v>0</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F77" s="4">
-        <v>3295620</v>
+        <v>3002880</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H77" s="26"/>
+      <c r="H77" s="28"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
@@ -3961,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="D78" s="4">
-        <v>5000000</v>
+        <v>2269320</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F78" s="4">
         <v>1026300</v>
@@ -3972,8 +4005,8 @@
       <c r="G78" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H78" s="28" t="s">
-        <v>205</v>
+      <c r="H78" s="26" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3984,37 +4017,37 @@
         <v>34</v>
       </c>
       <c r="C79" s="4">
-        <v>5000000</v>
+        <v>2269320</v>
       </c>
       <c r="D79" s="4">
         <v>0</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F79" s="4">
-        <v>6026300</v>
+        <v>3295620</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H79" s="26"/>
+      <c r="H79" s="28"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C80" s="4">
-        <v>223680</v>
+        <v>0</v>
       </c>
       <c r="D80" s="4">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F80" s="4">
         <v>1026300</v>
@@ -4022,415 +4055,415 @@
       <c r="G80" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H80" s="5" t="s">
-        <v>186</v>
+      <c r="H80" s="26" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C81" s="4">
-        <v>44460</v>
+        <v>5000000</v>
       </c>
       <c r="D81" s="4">
         <v>0</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F81" s="4">
-        <v>802620</v>
+        <v>6026300</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H81" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="H81" s="28"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C82" s="4">
-        <v>500000</v>
+        <v>223680</v>
       </c>
       <c r="D82" s="4">
         <v>0</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F82" s="4">
-        <v>758160</v>
+        <v>1026300</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H82" s="10" t="s">
-        <v>200</v>
+      <c r="H82" s="5" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C83" s="4">
-        <v>0</v>
+        <v>44460</v>
       </c>
       <c r="D83" s="4">
-        <v>19440</v>
+        <v>0</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F83" s="4">
-        <v>258160</v>
+        <v>802620</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="28" t="s">
-        <v>207</v>
+        <v>36</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C84" s="4">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="D84" s="4">
-        <v>45860</v>
+        <v>0</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F84" s="4">
-        <v>277600</v>
+        <v>758160</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" s="27"/>
+        <v>36</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
       </c>
       <c r="D85" s="4">
-        <v>224160</v>
+        <v>19440</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F85" s="4">
-        <v>323460</v>
+        <v>258160</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H85" s="27"/>
+      <c r="H85" s="26" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C86" s="4">
         <v>0</v>
       </c>
       <c r="D86" s="4">
-        <v>183320</v>
+        <v>45860</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F86" s="4">
-        <v>547620</v>
+        <v>277600</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H86" s="26"/>
+      <c r="H86" s="27"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" s="15">
-        <v>145340</v>
-      </c>
-      <c r="D87" s="15">
-        <v>0</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F87" s="15">
-        <v>730940</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H87" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="22.5">
+      <c r="A87" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0</v>
+      </c>
+      <c r="D87" s="4">
+        <v>224160</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F87" s="4">
+        <v>323460</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="27"/>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
       </c>
       <c r="D88" s="4">
-        <v>160960</v>
+        <v>183320</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F88" s="4">
-        <v>585600</v>
+        <v>547620</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H88" s="10" t="s">
-        <v>209</v>
-      </c>
+      <c r="H88" s="28"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="4">
-        <v>0</v>
-      </c>
-      <c r="D89" s="4">
-        <v>23250</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F89" s="4">
-        <v>746560</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="A89" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="15">
+        <v>145340</v>
+      </c>
+      <c r="D89" s="15">
+        <v>0</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F89" s="15">
+        <v>730940</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="22.5">
       <c r="A90" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C90" s="4">
         <v>0</v>
       </c>
       <c r="D90" s="4">
-        <v>54780</v>
+        <v>160960</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F90" s="4">
-        <v>769810</v>
+        <v>585600</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H90" s="27"/>
+      <c r="H90" s="10" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C91" s="4">
         <v>0</v>
       </c>
       <c r="D91" s="4">
-        <v>224160</v>
+        <v>23250</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F91" s="4">
-        <v>824590</v>
+        <v>746560</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H91" s="27"/>
+      <c r="H91" s="26" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C92" s="4">
         <v>0</v>
       </c>
       <c r="D92" s="4">
-        <v>183320</v>
+        <v>54780</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F92" s="4">
-        <v>1048750</v>
+        <v>769810</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H92" s="26"/>
+      <c r="H92" s="27"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C93" s="4">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="D93" s="4">
-        <v>0</v>
+        <v>224160</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F93" s="4">
-        <v>1232070</v>
+        <v>824590</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H93" s="10" t="s">
-        <v>192</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H93" s="27"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C94" s="4">
-        <v>223680</v>
+        <v>0</v>
       </c>
       <c r="D94" s="4">
-        <v>0</v>
+        <v>183320</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F94" s="4">
-        <v>732070</v>
+        <v>1048750</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>210</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H94" s="28"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C95" s="4">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="D95" s="4">
-        <v>2269320</v>
+        <v>0</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F95" s="4">
-        <v>508390</v>
+        <v>1232070</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H95" s="28" t="s">
-        <v>211</v>
+      <c r="H95" s="10" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B96" s="14" t="s">
+      <c r="A96" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C96" s="15">
-        <v>2269320</v>
-      </c>
-      <c r="D96" s="15">
-        <v>0</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="F96" s="15">
-        <v>2777710</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H96" s="24"/>
+      <c r="C96" s="4">
+        <v>223680</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F96" s="4">
+        <v>732070</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>44</v>
@@ -4439,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="D97" s="4">
-        <v>373290</v>
+        <v>2269320</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F97" s="4">
         <v>508390</v>
@@ -4450,49 +4483,49 @@
       <c r="G97" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H97" s="23" t="s">
+      <c r="H97" s="26" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B98" s="2" t="s">
+      <c r="A98" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B98" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="4">
-        <v>373290</v>
-      </c>
-      <c r="D98" s="4">
-        <v>0</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F98" s="4">
-        <v>881680</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H98" s="24"/>
+      <c r="C98" s="15">
+        <v>2269320</v>
+      </c>
+      <c r="D98" s="15">
+        <v>0</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F98" s="15">
+        <v>2777710</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" s="25"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C99" s="4">
-        <v>8390</v>
+        <v>0</v>
       </c>
       <c r="D99" s="4">
-        <v>0</v>
+        <v>373290</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F99" s="4">
         <v>508390</v>
@@ -4500,143 +4533,193 @@
       <c r="G99" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H99" s="10" t="s">
-        <v>210</v>
+      <c r="H99" s="24" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C100" s="4">
-        <v>500000</v>
+        <v>373290</v>
       </c>
       <c r="D100" s="4">
         <v>0</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F100" s="4">
-        <v>500000</v>
+        <v>881680</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H100" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="H100" s="25"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C101" s="4">
-        <v>0</v>
+        <v>8390</v>
       </c>
       <c r="D101" s="4">
-        <v>4127728</v>
+        <v>0</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F101" s="4">
-        <v>0</v>
+        <v>508390</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H101" s="5"/>
+      <c r="H101" s="10" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B102" s="14" t="s">
+      <c r="A102" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="15">
-        <v>4127728</v>
-      </c>
-      <c r="D102" s="15">
-        <v>0</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F102" s="15">
-        <v>4127728</v>
-      </c>
-      <c r="G102" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H102" s="16"/>
+      <c r="C102" s="4">
+        <v>500000</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F102" s="4">
+        <v>500000</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0</v>
+      </c>
+      <c r="D103" s="4">
+        <v>4127728</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F103" s="4">
+        <v>0</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" s="15">
+        <v>4127728</v>
+      </c>
+      <c r="D104" s="15">
+        <v>0</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F104" s="15">
+        <v>4127728</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" s="16"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C103" s="4">
-        <v>0</v>
-      </c>
-      <c r="D103" s="4">
-        <v>0</v>
-      </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="4">
-        <v>0</v>
-      </c>
-      <c r="G103" s="5" t="s">
+      <c r="C105" s="4">
+        <v>0</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="4">
+        <v>0</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H103" s="5"/>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="11" t="s">
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="11" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H70:H71"/>
     <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H37:H40"/>
     <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="H5:H8"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H20:H21"/>
     <mergeCell ref="H76:H77"/>
     <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H83:H86"/>
-    <mergeCell ref="H89:H92"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H85:H88"/>
+    <mergeCell ref="H91:H94"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="H48:H49"/>
     <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="H66:H67"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
